--- a/Rental Viewings.xlsx
+++ b/Rental Viewings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirub\OneDrive\Desktop\Rental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB1B3BA-3731-417F-8EEA-ABCBA86C7BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEFEC81-7F1A-4515-91FE-1AC769B6582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Follow ??  Sent follow up on Reside website</t>
   </si>
   <si>
-    <t>Contact on 27th June Miday</t>
-  </si>
-  <si>
     <t>26June2023 18:30 PM</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>RightMove</t>
   </si>
   <si>
-    <t>28th of June @ 2:00 PM</t>
-  </si>
-  <si>
     <t>1402 Number One, Pink Media City UK Greater Manchester, M50 2BB</t>
   </si>
   <si>
@@ -199,6 +193,42 @@
   </si>
   <si>
     <t>Studio</t>
+  </si>
+  <si>
+    <t>167 Clarendon Road, Clarendon Road, Manchester, M16 0EF</t>
+  </si>
+  <si>
+    <t>M16 0EF</t>
+  </si>
+  <si>
+    <t>28th of June @ 2:00 PM -Awaiting for Reschedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viewed </t>
+  </si>
+  <si>
+    <t>30-06-2023 by 4.00 PM - Awaiting for confirmation</t>
+  </si>
+  <si>
+    <t>205 Britton House, 21 Lord Street Manchester M4 4FN.</t>
+  </si>
+  <si>
+    <t>M4 4FN</t>
+  </si>
+  <si>
+    <t>29 June 2023 @  2:30 PM - 2:45 PM</t>
+  </si>
+  <si>
+    <t>Throney Grooves</t>
+  </si>
+  <si>
+    <t>303 Adelphi Wharf 3, 7 Adelphi Street Manchester M3 6GJ</t>
+  </si>
+  <si>
+    <t>M3 6GJ</t>
+  </si>
+  <si>
+    <t>30 June 2023 @ 1:15 PM - 1:30 PM</t>
   </si>
 </sst>
 </file>
@@ -242,12 +272,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -645,7 +676,7 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -677,7 +708,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
@@ -778,10 +809,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -793,13 +824,13 @@
         <v>900</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -807,39 +838,42 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>800</v>
       </c>
       <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
@@ -848,10 +882,91 @@
         <v>825</v>
       </c>
       <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>55</v>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>750</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>895</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>950</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45166</v>
       </c>
     </row>
   </sheetData>
